--- a/ioaConditions/train1P2Block4Test.xlsx
+++ b/ioaConditions/train1P2Block4Test.xlsx
@@ -34,25 +34,25 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/21_papika2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika2.wav</t>
-  </si>
-  <si>
-    <t>pngimages/21_cheese.png</t>
+    <t>trainingaudio/04_kitoti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki3.wav</t>
+  </si>
+  <si>
+    <t>pngimages/04_ladder.png</t>
+  </si>
+  <si>
+    <t>pngimages/22_egg.png</t>
+  </si>
+  <si>
+    <t>train1P2</t>
   </si>
   <si>
     <t>pngimages/12_pie.png</t>
   </si>
   <si>
-    <t>train1P2</t>
-  </si>
-  <si>
-    <t>pngimages/14_coffee.png</t>
-  </si>
-  <si>
-    <t>pngimages/09_plane.png</t>
+    <t>pngimages/02_pallet.png</t>
   </si>
 </sst>
 </file>

--- a/ioaConditions/train1P2Block4Test.xlsx
+++ b/ioaConditions/train1P2Block4Test.xlsx
@@ -34,10 +34,10 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/04_kitoti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki3.wav</t>
+    <t>trainingaudio/04_kitoti1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki3.mp3</t>
   </si>
   <si>
     <t>pngimages/04_ladder.png</t>

--- a/ioaConditions/train1P2Block4Test.xlsx
+++ b/ioaConditions/train1P2Block4Test.xlsx
@@ -34,10 +34,10 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/04_kitoti1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki3.mp3</t>
+    <t>trainingaudio/04_kitoti1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki3.ogg</t>
   </si>
   <si>
     <t>pngimages/04_ladder.png</t>

--- a/ioaConditions/train1P2Block4Test.xlsx
+++ b/ioaConditions/train1P2Block4Test.xlsx
@@ -34,10 +34,10 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/04_kitoti1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki3.ogg</t>
+    <t>trainingaudio/04_kitoti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki3.wav</t>
   </si>
   <si>
     <t>pngimages/04_ladder.png</t>
